--- a/1. documents/Testers/UserAcceptanceTest.xlsx
+++ b/1. documents/Testers/UserAcceptanceTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="19420" windowHeight="9980"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="19420" windowHeight="9980" firstSheet="13" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="4" r:id="rId1"/>
@@ -1323,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2350,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4742,7 +4742,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/1. documents/Testers/UserAcceptanceTest.xlsx
+++ b/1. documents/Testers/UserAcceptanceTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="19420" windowHeight="9980" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="19420" windowHeight="9980" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="216">
   <si>
     <t>System Name/Version</t>
   </si>
@@ -738,13 +738,19 @@
   </si>
   <si>
     <t>NIL</t>
+  </si>
+  <si>
+    <t>Nicola Tan</t>
+  </si>
+  <si>
+    <t>Tao Si Yue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -761,6 +767,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -899,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1019,6 +1032,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1333,7 +1358,7 @@
     <col min="2" max="5" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
@@ -1342,7 +1367,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="24"/>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1370,11 +1395,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1384,8 +1411,12 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -1533,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1585,7 +1616,9 @@
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1597,8 +1630,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -1756,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1808,7 +1845,9 @@
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1820,8 +1859,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -1949,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1999,9 +2042,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2013,8 +2058,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -2097,8 +2146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2147,9 +2196,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2161,8 +2212,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -2350,8 +2405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2400,9 +2455,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2414,8 +2471,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -2603,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2617,58 +2678,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="46">
         <v>42790</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="46">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="45">
+        <v>15</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="46">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -2886,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2936,9 +3003,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2950,8 +3019,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -3079,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3129,9 +3202,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -3143,8 +3218,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -3272,8 +3351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3322,9 +3401,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -3336,8 +3417,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -3466,7 +3551,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3515,9 +3600,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -3529,8 +3616,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -3659,7 +3750,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3716,9 +3807,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="15"/>
+        <v>214</v>
+      </c>
+      <c r="E3" s="15">
+        <v>42793</v>
+      </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -3734,8 +3827,12 @@
       <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="15">
+        <v>42793</v>
+      </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -3892,7 +3989,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3941,9 +4038,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -3955,8 +4054,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -4129,8 +4232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F10:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4179,9 +4282,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -4193,8 +4298,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -4292,8 +4401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4342,9 +4451,11 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -4356,8 +4467,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -4586,7 +4701,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4637,7 +4752,9 @@
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -4649,8 +4766,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -4741,8 +4862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4793,7 +4914,9 @@
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -4805,8 +4928,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -4965,7 +5092,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5016,7 +5143,9 @@
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -5028,8 +5157,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
@@ -5128,8 +5261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5180,7 +5313,9 @@
       <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -5192,8 +5327,12 @@
       <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="7">
+        <v>42793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
